--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2351.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2351.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9190217491308387</v>
+        <v>1.003783345222473</v>
       </c>
       <c r="B1">
-        <v>1.505991066367241</v>
+        <v>2.113560438156128</v>
       </c>
       <c r="C1">
-        <v>3.325056930159562</v>
+        <v>6.720728397369385</v>
       </c>
       <c r="D1">
-        <v>2.378697735713736</v>
+        <v>1.894567608833313</v>
       </c>
       <c r="E1">
-        <v>1.181429077873547</v>
+        <v>1.370669007301331</v>
       </c>
     </row>
   </sheetData>
